--- a/OpFlix/M_Diagrama_RafaelPieri_Fisico.xlsx
+++ b/OpFlix/M_Diagrama_RafaelPieri_Fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46181942866\Documents\SegundoTermo\Gufos\2s2019-sprint-1-bd\OpFlix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B7A765-5781-4341-A2A3-E4A46ABFE562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10D1D24-774A-4D53-B4A9-D06F84E46A36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="5955" xr2:uid="{CF8E4AFE-8E11-47FD-9871-CAC3CAB4787F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>OpFlix</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Administrador</t>
+  </si>
+  <si>
+    <t>FAVORITOS</t>
   </si>
 </sst>
 </file>
@@ -654,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3E9C0A-EB57-479E-B221-A04FA4CC91D4}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="CN47" sqref="CN47"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,14 +673,18 @@
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="1.3">
+    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="1.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
@@ -687,8 +694,12 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -710,8 +721,14 @@
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -733,8 +750,14 @@
       <c r="G8" s="3">
         <v>43685</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -756,8 +779,14 @@
       <c r="G9" s="3">
         <v>43685</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -779,8 +808,38 @@
       <c r="G10" s="3">
         <v>41610</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="5">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
@@ -793,8 +852,14 @@
         <v>13</v>
       </c>
       <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="5">
+        <v>4</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -813,8 +878,14 @@
       <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="5">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1005,7 +1076,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="D14:E14"/>
